--- a/assets/excel/Daftar SPD.xlsx
+++ b/assets/excel/Daftar SPD.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
   <si>
     <t>DAFTAR SPD</t>
   </si>
@@ -74,7 +74,7 @@
     <t>KET</t>
   </si>
   <si>
-    <t>SPD-001/PPK.4/07/2019</t>
+    <t>SPD-001/PPK./07/2019</t>
   </si>
   <si>
     <t>2019-07-25</t>
@@ -89,7 +89,7 @@
     <t>Bogor</t>
   </si>
   <si>
-    <t>Jakarta</t>
+    <t>Inggris</t>
   </si>
   <si>
     <t>2019-07-26</t>
@@ -134,7 +134,7 @@
     <t>Udara</t>
   </si>
   <si>
-    <t>SPD-003/PPK.4/07/2019</t>
+    <t>SPD-003/PPK./07/2019</t>
   </si>
   <si>
     <t>Ardian Fauzi Rahman, S.Sos. / 199212072018011002</t>
@@ -146,7 +146,7 @@
     <t>Depok</t>
   </si>
   <si>
-    <t>Bandung</t>
+    <t>Kanada</t>
   </si>
   <si>
     <t>2019-07-29</t>
@@ -165,6 +165,33 @@
   </si>
   <si>
     <t>abv</t>
+  </si>
+  <si>
+    <t>SPD-004/PPK.4/08/2019</t>
+  </si>
+  <si>
+    <t>2019-08-13</t>
+  </si>
+  <si>
+    <t>Addy Kusnadi / 197909042008101001</t>
+  </si>
+  <si>
+    <t>dsa</t>
+  </si>
+  <si>
+    <t>Bandar Lampung</t>
+  </si>
+  <si>
+    <t>2019-08-14</t>
+  </si>
+  <si>
+    <t>Jalan Dinasm</t>
+  </si>
+  <si>
+    <t>Laut</t>
+  </si>
+  <si>
+    <t>sda</t>
   </si>
 </sst>
 </file>
@@ -503,7 +530,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,6 +761,62 @@
       </c>
       <c r="R6" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7">
+        <v>2019</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/assets/excel/Daftar SPD.xlsx
+++ b/assets/excel/Daftar SPD.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>DAFTAR SPD</t>
   </si>
@@ -32,7 +32,7 @@
     <t>TANGGAL</t>
   </si>
   <si>
-    <t>PEGAWAI / NIP</t>
+    <t>PEGAWAI - NIP/NRP</t>
   </si>
   <si>
     <t>KEPERLUAN</t>
@@ -74,13 +74,13 @@
     <t>KET</t>
   </si>
   <si>
-    <t>SPD-001/PPK./07/2019</t>
-  </si>
-  <si>
-    <t>2019-07-25</t>
-  </si>
-  <si>
-    <t>Edi Setiawan, Ak. / 197209051993021001</t>
+    <t>SPD-999/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>Muhammad Farhan Azhar / 199910082018121003</t>
   </si>
   <si>
     <t>Pendampingan</t>
@@ -89,16 +89,13 @@
     <t>Bogor</t>
   </si>
   <si>
-    <t>Inggris</t>
-  </si>
-  <si>
-    <t>2019-07-26</t>
+    <t>Jakarta</t>
   </si>
   <si>
     <t>Sekretariat Utama</t>
   </si>
   <si>
-    <t>5099.955.524111</t>
+    <t>5099.955.052.524111</t>
   </si>
   <si>
     <t>Dalam Negeri</t>
@@ -113,85 +110,46 @@
     <t>C</t>
   </si>
   <si>
-    <t>SPD-002/PPK.4/07/2019</t>
-  </si>
-  <si>
-    <t>Aulia Amani Wahdah / 199711182018122003</t>
-  </si>
-  <si>
-    <t>Monitoring</t>
-  </si>
-  <si>
-    <t>Semarang</t>
-  </si>
-  <si>
-    <t>2019-07-28</t>
-  </si>
-  <si>
-    <t>5099.954.524111</t>
-  </si>
-  <si>
-    <t>Udara</t>
-  </si>
-  <si>
-    <t>SPD-003/PPK./07/2019</t>
-  </si>
-  <si>
-    <t>Ardian Fauzi Rahman, S.Sos. / 199212072018011002</t>
-  </si>
-  <si>
-    <t>ascas</t>
-  </si>
-  <si>
-    <t>Depok</t>
-  </si>
-  <si>
-    <t>Kanada</t>
-  </si>
-  <si>
-    <t>2019-07-29</t>
-  </si>
-  <si>
-    <t>MA2018-1fd</t>
-  </si>
-  <si>
-    <t>Perjalanan Dinasd</t>
-  </si>
-  <si>
-    <t>Sekretaris BNPT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>abv</t>
-  </si>
-  <si>
-    <t>SPD-004/PPK.4/08/2019</t>
-  </si>
-  <si>
-    <t>2019-08-13</t>
-  </si>
-  <si>
-    <t>Addy Kusnadi / 197909042008101001</t>
-  </si>
-  <si>
-    <t>dsa</t>
-  </si>
-  <si>
-    <t>Bandar Lampung</t>
-  </si>
-  <si>
-    <t>2019-08-14</t>
-  </si>
-  <si>
-    <t>Jalan Dinasm</t>
-  </si>
-  <si>
-    <t>Laut</t>
-  </si>
-  <si>
-    <t>sda</t>
+    <t>SPD-1000/PPK.4/10/2019</t>
+  </si>
+  <si>
+    <t>2019-10-01</t>
+  </si>
+  <si>
+    <t>Ade Hermana, S.E., M.M. / 196601061987031001</t>
+  </si>
+  <si>
+    <t>Melaksanakan Pemantauan Kegiatan Rembuk Aparatur Kelurahan dan Desa tentang Literasi Informasi melalui FKPT DKI Jakarta di Jakarta Selatan</t>
+  </si>
+  <si>
+    <t>2019-10-02</t>
+  </si>
+  <si>
+    <t>2019-10-04</t>
+  </si>
+  <si>
+    <t>5729.965.052.524111</t>
+  </si>
+  <si>
+    <t>SPD-1000/PPK.4/09/2019</t>
+  </si>
+  <si>
+    <t>Siti Nur Arofah / 199704162018122001</t>
+  </si>
+  <si>
+    <t>MELAKSANAKAN PEMANTAUAN KEGIATAN MONITORING DAN EVALUASI SOP PENANGANAN AKSI TEROR DI SATUAN PENDIDIKAN KERJASAMA/ SEKOLAH INTERNASIONAL DI BANDUNG, JAWA BARAT</t>
+  </si>
+  <si>
+    <t>Bandung</t>
+  </si>
+  <si>
+    <t>DALAM NEGERI</t>
+  </si>
+  <si>
+    <t>SEKRETARIS UTAMA</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -530,7 +488,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R7"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,31 +583,31 @@
         <v>24</v>
       </c>
       <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
-      </c>
-      <c r="J4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" t="s">
-        <v>26</v>
       </c>
       <c r="L4">
         <v>2019</v>
       </c>
       <c r="M4" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s">
         <v>27</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>28</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>30</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
       </c>
       <c r="R4"/>
     </row>
@@ -658,13 +616,13 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
         <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -676,16 +634,16 @@
         <v>23</v>
       </c>
       <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
         <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5">
         <v>2019</v>
@@ -694,16 +652,16 @@
         <v>37</v>
       </c>
       <c r="N5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O5" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s">
-        <v>38</v>
-      </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R5"/>
     </row>
@@ -712,112 +670,54 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K6" t="s">
-        <v>26</v>
       </c>
       <c r="L6">
         <v>2019</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="N6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>48</v>
-      </c>
-      <c r="R6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7">
-        <v>2019</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>48</v>
-      </c>
-      <c r="R7" t="s">
-        <v>58</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="R6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
